--- a/larson(eating_raw_ma).xlsx
+++ b/larson(eating_raw_ma).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Thesis\githubthesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CE6D4B-83A4-4492-9B53-F4EB64A77B27}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00A631E-963A-4ED9-9C19-9FF17D960872}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11475" xr2:uid="{82994317-DEF0-47CC-A78E-074601CFA1DC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="36">
   <si>
     <t>eating</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>Emotional Eating Scale-Depression</t>
+  </si>
+  <si>
+    <t>Emotional Eating Scale-Anxiety</t>
   </si>
 </sst>
 </file>
@@ -500,8 +506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C3EF8B-CDE0-4990-9AD7-9A3620019349}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,27 +1609,91 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>2.06</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="H32">
+        <v>43</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1.81</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="K32" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2010</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>1.51</v>
+      </c>
+      <c r="G33">
+        <v>0.87</v>
+      </c>
+      <c r="H33">
+        <v>43</v>
+      </c>
+      <c r="I33">
+        <v>1.81</v>
+      </c>
+      <c r="J33">
+        <v>0.89</v>
+      </c>
+      <c r="K33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E39" s="1"/>
     </row>
   </sheetData>
